--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_5_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1300270.068996389</v>
+        <v>1262233.452815113</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>421727.353777918</v>
+        <v>421727.3537779179</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7956703.636481814</v>
+        <v>7956703.636481817</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>145.9899482601505</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G2" t="n">
-        <v>14.85476540383092</v>
+        <v>234.3288037188065</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.6592771345624158</v>
@@ -709,13 +709,13 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I3" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>119.9460525158482</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>139.2827176148584</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C5" t="n">
-        <v>241.5873152526073</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="G5" t="n">
-        <v>14.85476540383092</v>
+        <v>160.2040698085663</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -1031,16 +1031,16 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>19.53563331235397</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>59.33202238395851</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.138716923775</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F8" t="n">
-        <v>7.293863480540836</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G8" t="n">
-        <v>14.85476540383092</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>145.3493044047353</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>159.5028127661658</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>231.9087310396551</v>
+        <v>69.92076221648078</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
         <v>14.77440971783335</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="R10" t="n">
-        <v>84.37801704792682</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>366.9850956789426</v>
+        <v>48.57995935198338</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.6097194764729</v>
       </c>
       <c r="H11" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>29.51357429489017</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>12.1072131707399</v>
       </c>
       <c r="I12" t="n">
         <v>63.56783007605712</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.5880156630749</v>
@@ -1517,7 +1517,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>162.4436343493239</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>98.28149991177121</v>
+        <v>3.693765033645534</v>
       </c>
       <c r="H13" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.35397375491782</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49.7823671951049</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>48.44047405411802</v>
       </c>
       <c r="E14" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.6097194764729</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="15">
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.9462130081922</v>
+        <v>83.58419887257689</v>
       </c>
       <c r="U16" t="n">
-        <v>2.696742040683171</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>407.2938634805408</v>
@@ -1861,7 +1861,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>63.64170646647294</v>
+        <v>60.5319062105038</v>
       </c>
       <c r="S17" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U17" t="n">
-        <v>73.75001596360474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1940,10 +1940,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H18" t="n">
-        <v>104.0288287853823</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S18" t="n">
-        <v>64.66640004843207</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T18" t="n">
         <v>195.6974464808964</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>50.42797305210065</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>35.69196057755455</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
-        <v>175.6063564671981</v>
+        <v>261.0680656624079</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.33473024000175</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S21" t="n">
         <v>156.5880156630749</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.3250204528505</v>
       </c>
       <c r="I22" t="n">
-        <v>68.03866323265301</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>389.7693285897406</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>147.2126044414123</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.5149286494106</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.33473024000174</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S24" t="n">
         <v>156.5880156630749</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
-        <v>126.1165465901326</v>
+        <v>14.59915797005065</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2557,25 +2557,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>131.8723087841354</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>168.4423464307232</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H26" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>0.8560777200009522</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -2651,10 +2651,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H27" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>95.1577191364516</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G28" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>152.3835969773837</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -2806,7 +2806,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>191.4318290872649</v>
+        <v>310.8196571201597</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H30" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>53.33473024000175</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>156.5880156630749</v>
+        <v>64.66640004843207</v>
       </c>
       <c r="T30" t="n">
         <v>195.6974464808964</v>
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
@@ -2994,22 +2994,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>32.99521853687121</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>124.9253766730531</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1.851766077311237</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>370.5192531116894</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,16 +3085,16 @@
         <v>217.5149286494106</v>
       </c>
       <c r="U32" t="n">
-        <v>29.13122072894424</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3116,7 +3116,7 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E33" t="n">
-        <v>10.77708785252926</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
         <v>143.5062320835493</v>
@@ -3125,10 +3125,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H33" t="n">
-        <v>104.0288287853824</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>63.56783007605712</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>286.0218075870219</v>
       </c>
       <c r="V34" t="n">
-        <v>50.42797305210055</v>
+        <v>169.189445750184</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,13 +3268,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -3283,7 +3283,7 @@
         <v>413.6097194764729</v>
       </c>
       <c r="H35" t="n">
-        <v>148.6837087419612</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>74.41833584319004</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8560777200009522</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E36" t="n">
         <v>156.0334337071738</v>
@@ -3362,10 +3362,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H36" t="n">
-        <v>104.0288287853824</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I36" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>88.17748785667555</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>112.4639859189615</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>148.2796428708918</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,13 +3505,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>63.64170646647295</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.5149286494106</v>
+        <v>175.6063564671984</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,10 +3565,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>295.5778440014527</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -3599,10 +3599,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H39" t="n">
-        <v>104.0288287853824</v>
+        <v>22.34031300679495</v>
       </c>
       <c r="I39" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>53.33473024000175</v>
       </c>
       <c r="S39" t="n">
-        <v>11.33166980843018</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T39" t="n">
         <v>195.6974464808964</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>22.21482157698481</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>83.51342957218313</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V40" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
         <v>356.6047327545984</v>
@@ -3751,13 +3751,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>217.1983753615429</v>
+        <v>212.03862081657</v>
       </c>
       <c r="H41" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -3836,10 +3836,10 @@
         <v>135.3570519053243</v>
       </c>
       <c r="H42" t="n">
-        <v>22.34031300679495</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
         <v>156.5880156630749</v>
       </c>
       <c r="T42" t="n">
-        <v>195.6974464808964</v>
+        <v>50.4411006262517</v>
       </c>
       <c r="U42" t="n">
         <v>224.6133508632724</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>23.03042434037949</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0218075870219</v>
       </c>
       <c r="V43" t="n">
-        <v>110.3094207068132</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>148.2052632113728</v>
       </c>
       <c r="G44" t="n">
-        <v>212.03862081657</v>
+        <v>413.6097194764729</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.5149286494106</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4070,7 +4070,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3570519053243</v>
+        <v>53.66853612673689</v>
       </c>
       <c r="H45" t="n">
         <v>104.0288287853823</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S45" t="n">
-        <v>128.2342301244892</v>
+        <v>156.5880156630749</v>
       </c>
       <c r="T45" t="n">
         <v>195.6974464808964</v>
@@ -4143,16 +4143,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.64049925911437</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>212.6245410698995</v>
       </c>
       <c r="T46" t="n">
-        <v>225.9462130081922</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>116.7841708736349</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>399.7428683723875</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="C2" t="n">
-        <v>252.2782741702153</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="D2" t="n">
-        <v>252.2782741702153</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="E2" t="n">
-        <v>252.2782741702153</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="F2" t="n">
-        <v>244.9107353009821</v>
+        <v>259.304402419014</v>
       </c>
       <c r="G2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H2" t="n">
-        <v>229.9059217617589</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I2" t="n">
         <v>22.60864108688619</v>
@@ -4333,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007955</v>
+        <v>345.6915471007954</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623907</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003602</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536997</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4357,25 +4357,25 @@
         <v>953.8515700725947</v>
       </c>
       <c r="S2" t="n">
-        <v>953.8515700725947</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T2" t="n">
-        <v>953.8515700725947</v>
+        <v>520.6898842948577</v>
       </c>
       <c r="U2" t="n">
-        <v>953.8515700725947</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="V2" t="n">
-        <v>953.8515700725947</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="W2" t="n">
-        <v>953.8515700725947</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="X2" t="n">
-        <v>676.7972192224911</v>
+        <v>266.6719412882472</v>
       </c>
       <c r="Y2" t="n">
-        <v>399.7428683723875</v>
+        <v>266.6719412882472</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>220.8983197263226</v>
+        <v>583.6746287161177</v>
       </c>
       <c r="C3" t="n">
-        <v>220.8983197263226</v>
+        <v>583.6746287161177</v>
       </c>
       <c r="D3" t="n">
-        <v>220.8983197263226</v>
+        <v>436.0863220750615</v>
       </c>
       <c r="E3" t="n">
-        <v>220.8983197263226</v>
+        <v>278.4767930779162</v>
       </c>
       <c r="F3" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8983197263226</v>
+        <v>133.521003094533</v>
       </c>
       <c r="H3" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I3" t="n">
         <v>21.9427045873282</v>
@@ -4415,46 +4415,46 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L3" t="n">
-        <v>21.9427045873282</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M3" t="n">
-        <v>277.9660032696079</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q3" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S3" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T3" t="n">
-        <v>801.0973387912989</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U3" t="n">
-        <v>679.9397099874118</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V3" t="n">
-        <v>679.9397099874118</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W3" t="n">
-        <v>427.4252183207451</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X3" t="n">
-        <v>220.8983197263226</v>
+        <v>956.4456156140277</v>
       </c>
       <c r="Y3" t="n">
-        <v>220.8983197263226</v>
+        <v>750.7171798376781</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="C4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="D4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="E4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="F4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="G4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J4" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4515,25 +4515,25 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>289.0085846595923</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="C5" t="n">
-        <v>44.98099349534252</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="D5" t="n">
-        <v>44.98099349534252</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="E5" t="n">
-        <v>44.98099349534252</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="F5" t="n">
-        <v>37.61345462610935</v>
+        <v>184.4309338228118</v>
       </c>
       <c r="G5" t="n">
         <v>22.60864108688619</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>843.1172863597994</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V5" t="n">
-        <v>566.0629355096959</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W5" t="n">
-        <v>566.0629355096959</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X5" t="n">
-        <v>289.0085846595923</v>
+        <v>745.907174392252</v>
       </c>
       <c r="Y5" t="n">
-        <v>289.0085846595923</v>
+        <v>745.907174392252</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>472.0963302089128</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="C6" t="n">
-        <v>472.0963302089128</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="D6" t="n">
-        <v>324.5080235678566</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="E6" t="n">
-        <v>166.8984945707113</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="F6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="G6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="H6" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L6" t="n">
-        <v>409.2622680873972</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M6" t="n">
-        <v>630.6851405540922</v>
+        <v>416.655578933882</v>
       </c>
       <c r="N6" t="n">
-        <v>630.6851405540922</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O6" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P6" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q6" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>926.4669324920217</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>726.0805366250836</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U6" t="n">
-        <v>726.0805366250836</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V6" t="n">
-        <v>491.8292931506845</v>
+        <v>169.25135696049</v>
       </c>
       <c r="W6" t="n">
-        <v>472.0963302089128</v>
+        <v>169.25135696049</v>
       </c>
       <c r="X6" t="n">
-        <v>472.0963302089128</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="Y6" t="n">
-        <v>472.0963302089128</v>
+        <v>109.3200212191178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="H7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="I7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="J7" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695784</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4767,10 +4767,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C8" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D8" t="n">
-        <v>44.98099349534252</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E8" t="n">
-        <v>44.98099349534252</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F8" t="n">
-        <v>37.61345462610935</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G8" t="n">
         <v>22.60864108688619</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V8" t="n">
-        <v>468.8528235421485</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W8" t="n">
-        <v>322.0353443454461</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X8" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.98099349534252</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.9427045873282</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C9" t="n">
         <v>21.9427045873282</v>
@@ -4886,19 +4886,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1846636454791</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M9" t="n">
-        <v>432.7256329136656</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540922</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4910,25 +4910,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>936.0212770773536</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T9" t="n">
-        <v>735.6348812104155</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U9" t="n">
-        <v>508.7084397283941</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V9" t="n">
-        <v>274.4571962539949</v>
+        <v>1026.50819682451</v>
       </c>
       <c r="W9" t="n">
-        <v>21.9427045873282</v>
+        <v>773.9937051578435</v>
       </c>
       <c r="X9" t="n">
-        <v>21.9427045873282</v>
+        <v>567.466806563421</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.9427045873282</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="C10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="D10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="E10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="F10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="G10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="H10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="I10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J10" t="n">
         <v>36.86635076695784</v>
@@ -4983,31 +4983,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>122.096671017389</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="R10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="S10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="T10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="U10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="V10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="W10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="X10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="Y10" t="n">
-        <v>36.86635076695784</v>
+        <v>126.6025577647144</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2356.285268582156</v>
+        <v>517.5696934337983</v>
       </c>
       <c r="C11" t="n">
-        <v>1985.59325274484</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="D11" t="n">
-        <v>1625.38645198262</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="E11" t="n">
-        <v>1238.398537078289</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="F11" t="n">
-        <v>826.9905941686516</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G11" t="n">
-        <v>409.2029987378709</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H11" t="n">
-        <v>80.52312319787296</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I11" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J11" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K11" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L11" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M11" t="n">
         <v>1286.636576300462</v>
@@ -5077,16 +5077,16 @@
         <v>2356.285268582156</v>
       </c>
       <c r="V11" t="n">
-        <v>2356.285268582156</v>
+        <v>2024.433529670521</v>
       </c>
       <c r="W11" t="n">
-        <v>2356.285268582156</v>
+        <v>1670.362704417435</v>
       </c>
       <c r="X11" t="n">
-        <v>2356.285268582156</v>
+        <v>1295.755028527365</v>
       </c>
       <c r="Y11" t="n">
-        <v>2356.285268582156</v>
+        <v>905.1620267584398</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>874.5523969142982</v>
+        <v>886.7819051675707</v>
       </c>
       <c r="C12" t="n">
-        <v>701.7992818361154</v>
+        <v>714.0287900893879</v>
       </c>
       <c r="D12" t="n">
-        <v>554.2109751950592</v>
+        <v>566.4404834483319</v>
       </c>
       <c r="E12" t="n">
-        <v>396.6014461979139</v>
+        <v>408.8309544511866</v>
       </c>
       <c r="F12" t="n">
-        <v>251.6456562145308</v>
+        <v>263.8751644678034</v>
       </c>
       <c r="G12" t="n">
-        <v>114.9213613606679</v>
+        <v>127.1508696139405</v>
       </c>
       <c r="H12" t="n">
         <v>114.9213613606679</v>
@@ -5123,10 +5123,10 @@
         <v>50.71143199091319</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9669871305374</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L12" t="n">
-        <v>573.239262455199</v>
+        <v>687.7199234768461</v>
       </c>
       <c r="M12" t="n">
         <v>1082.635746712845</v>
@@ -5144,28 +5144,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R12" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S12" t="n">
-        <v>2323.528421865784</v>
+        <v>2377.401886754675</v>
       </c>
       <c r="T12" t="n">
-        <v>2125.854233501242</v>
+        <v>2179.727698390133</v>
       </c>
       <c r="U12" t="n">
-        <v>1898.972060912078</v>
+        <v>1952.845525800969</v>
       </c>
       <c r="V12" t="n">
-        <v>1664.720817437679</v>
+        <v>1718.59428232657</v>
       </c>
       <c r="W12" t="n">
-        <v>1412.206325771012</v>
+        <v>1466.079790659903</v>
       </c>
       <c r="X12" t="n">
-        <v>1205.67942717659</v>
+        <v>1259.552892065481</v>
       </c>
       <c r="Y12" t="n">
-        <v>1041.594948035859</v>
+        <v>1053.824456289131</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>496.4361755452312</v>
+        <v>54.44250778247434</v>
       </c>
       <c r="C13" t="n">
-        <v>496.4361755452312</v>
+        <v>54.44250778247434</v>
       </c>
       <c r="D13" t="n">
-        <v>496.4361755452312</v>
+        <v>54.44250778247434</v>
       </c>
       <c r="E13" t="n">
-        <v>496.4361755452312</v>
+        <v>54.44250778247434</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4361755452312</v>
+        <v>54.44250778247434</v>
       </c>
       <c r="G13" t="n">
-        <v>397.1619332101088</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H13" t="n">
-        <v>238.9107867959494</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I13" t="n">
-        <v>100.5639307332544</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J13" t="n">
         <v>50.71143199091319</v>
@@ -5211,40 +5211,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N13" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O13" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P13" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q13" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R13" t="n">
-        <v>496.4361755452312</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S13" t="n">
-        <v>496.4361755452312</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="T13" t="n">
-        <v>496.4361755452312</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U13" t="n">
-        <v>496.4361755452312</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V13" t="n">
-        <v>496.4361755452312</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="W13" t="n">
-        <v>496.4361755452312</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="X13" t="n">
-        <v>496.4361755452312</v>
+        <v>236.3452264599327</v>
       </c>
       <c r="Y13" t="n">
-        <v>496.4361755452312</v>
+        <v>236.3452264599327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2485.286380156665</v>
+        <v>1391.909392419327</v>
       </c>
       <c r="C14" t="n">
-        <v>2114.594364319349</v>
+        <v>1391.909392419327</v>
       </c>
       <c r="D14" t="n">
-        <v>1754.387563557128</v>
+        <v>1342.979620647491</v>
       </c>
       <c r="E14" t="n">
-        <v>1367.399648652797</v>
+        <v>955.9917057431599</v>
       </c>
       <c r="F14" t="n">
         <v>955.9917057431599</v>
@@ -5305,25 +5305,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S14" t="n">
-        <v>2535.571599545659</v>
+        <v>2356.285268582156</v>
       </c>
       <c r="T14" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="U14" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.571599545659</v>
+        <v>2136.573219441338</v>
       </c>
       <c r="W14" t="n">
-        <v>2535.571599545659</v>
+        <v>1782.502394188252</v>
       </c>
       <c r="X14" t="n">
-        <v>2535.571599545659</v>
+        <v>1782.502394188252</v>
       </c>
       <c r="Y14" t="n">
-        <v>2535.571599545659</v>
+        <v>1391.909392419327</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J15" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9669871305374</v>
+        <v>296.4476481521845</v>
       </c>
       <c r="L15" t="n">
-        <v>573.239262455199</v>
+        <v>687.719923476846</v>
       </c>
       <c r="M15" t="n">
-        <v>1082.635746712845</v>
+        <v>1197.116407734492</v>
       </c>
       <c r="N15" t="n">
-        <v>1620.913172155677</v>
+        <v>1735.393833177324</v>
       </c>
       <c r="O15" t="n">
-        <v>2045.703836711752</v>
+        <v>2160.184497733399</v>
       </c>
       <c r="P15" t="n">
-        <v>2370.209254145837</v>
+        <v>2484.689915167484</v>
       </c>
       <c r="Q15" t="n">
         <v>2535.571599545659</v>
@@ -5457,19 +5457,19 @@
         <v>679.5420961591334</v>
       </c>
       <c r="Q16" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R16" t="n">
-        <v>496.4361755452312</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S16" t="n">
-        <v>281.663911838262</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T16" t="n">
-        <v>53.43541385018912</v>
+        <v>595.1136124494598</v>
       </c>
       <c r="U16" t="n">
-        <v>50.71143199091319</v>
+        <v>306.2026956948922</v>
       </c>
       <c r="V16" t="n">
         <v>50.71143199091319</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1997.793701835199</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="C17" t="n">
-        <v>1627.101685997883</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="D17" t="n">
-        <v>1266.894885235662</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E17" t="n">
-        <v>879.9069703313312</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F17" t="n">
-        <v>468.4990274216939</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G17" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H17" t="n">
         <v>50.71143199091319</v>
@@ -5527,7 +5527,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N17" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O17" t="n">
         <v>2113.071138623965</v>
@@ -5539,28 +5539,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R17" t="n">
-        <v>2471.287047559323</v>
+        <v>2474.42825993909</v>
       </c>
       <c r="S17" t="n">
-        <v>2292.00071659582</v>
+        <v>2474.42825993909</v>
       </c>
       <c r="T17" t="n">
-        <v>2072.288667455001</v>
+        <v>2254.716210798271</v>
       </c>
       <c r="U17" t="n">
-        <v>1997.793701835199</v>
+        <v>2254.716210798271</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.793701835199</v>
+        <v>1922.864471886635</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.793701835199</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="X17" t="n">
-        <v>1997.793701835199</v>
+        <v>1568.79364663355</v>
       </c>
       <c r="Y17" t="n">
-        <v>1997.793701835199</v>
+        <v>1568.79364663355</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C18" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D18" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E18" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F18" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G18" t="n">
-        <v>220.0009863964076</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I18" t="n">
         <v>50.71143199091319</v>
@@ -5597,13 +5597,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L18" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M18" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N18" t="n">
         <v>1620.913172155677</v>
@@ -5618,28 +5618,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R18" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S18" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T18" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U18" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V18" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W18" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X18" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="C19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="D19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="E19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="F19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="G19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="H19" t="n">
         <v>50.71143199091319</v>
@@ -5697,28 +5697,28 @@
         <v>679.5420961591335</v>
       </c>
       <c r="R19" t="n">
-        <v>529.7646791178286</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S19" t="n">
-        <v>314.9924154108594</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T19" t="n">
-        <v>86.76391742278648</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U19" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="V19" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045659</v>
       </c>
       <c r="W19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="X19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
       <c r="Y19" t="n">
-        <v>50.71143199091319</v>
+        <v>101.6487785081866</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1757.386264452093</v>
+        <v>1255.329310350049</v>
       </c>
       <c r="C20" t="n">
-        <v>1386.694248614777</v>
+        <v>884.6372945127335</v>
       </c>
       <c r="D20" t="n">
-        <v>1026.487447852556</v>
+        <v>884.6372945127335</v>
       </c>
       <c r="E20" t="n">
-        <v>639.4995329482254</v>
+        <v>884.6372945127335</v>
       </c>
       <c r="F20" t="n">
-        <v>228.0915900385881</v>
+        <v>473.2293516030963</v>
       </c>
       <c r="G20" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="H20" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723812</v>
       </c>
       <c r="I20" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J20" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K20" t="n">
-        <v>432.7629010724813</v>
+        <v>432.762901072481</v>
       </c>
       <c r="L20" t="n">
         <v>829.7261648535822</v>
@@ -5764,7 +5764,7 @@
         <v>1286.636576300462</v>
       </c>
       <c r="N20" t="n">
-        <v>1735.423100897411</v>
+        <v>1735.42310089741</v>
       </c>
       <c r="O20" t="n">
         <v>2113.071138623965</v>
@@ -5782,22 +5782,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T20" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U20" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.571599545659</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W20" t="n">
-        <v>2535.571599545659</v>
+        <v>1629.936986240119</v>
       </c>
       <c r="X20" t="n">
-        <v>2535.571599545659</v>
+        <v>1255.329310350049</v>
       </c>
       <c r="Y20" t="n">
-        <v>2144.978597776734</v>
+        <v>1255.329310350049</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J21" t="n">
-        <v>120.4127199202217</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K21" t="n">
-        <v>366.1489360814929</v>
+        <v>181.9669871305373</v>
       </c>
       <c r="L21" t="n">
-        <v>757.4212114061545</v>
+        <v>573.239262455199</v>
       </c>
       <c r="M21" t="n">
-        <v>1266.817695663801</v>
+        <v>1082.635746712845</v>
       </c>
       <c r="N21" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O21" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P21" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q21" t="n">
         <v>2535.571599545659</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.4373544481384</v>
+        <v>497.6393774816751</v>
       </c>
       <c r="C22" t="n">
-        <v>119.4373544481384</v>
+        <v>497.6393774816751</v>
       </c>
       <c r="D22" t="n">
-        <v>119.4373544481384</v>
+        <v>497.6393774816751</v>
       </c>
       <c r="E22" t="n">
-        <v>119.4373544481384</v>
+        <v>349.1801611451102</v>
       </c>
       <c r="F22" t="n">
-        <v>119.4373544481384</v>
+        <v>201.5447859836915</v>
       </c>
       <c r="G22" t="n">
-        <v>119.4373544481384</v>
+        <v>201.5447859836915</v>
       </c>
       <c r="H22" t="n">
-        <v>119.4373544481384</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I22" t="n">
         <v>50.71143199091319</v>
@@ -5922,40 +5922,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N22" t="n">
-        <v>494.2381528619503</v>
+        <v>494.2381528619504</v>
       </c>
       <c r="O22" t="n">
-        <v>606.6105655578848</v>
+        <v>606.6105655578849</v>
       </c>
       <c r="P22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Q22" t="n">
-        <v>679.5420961591334</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="R22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="S22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="T22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="U22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="V22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="W22" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="X22" t="n">
-        <v>301.3400731255969</v>
+        <v>679.5420961591335</v>
       </c>
       <c r="Y22" t="n">
-        <v>301.3400731255969</v>
+        <v>679.5420961591335</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.1193749005504</v>
+        <v>1609.400135603135</v>
       </c>
       <c r="C23" t="n">
-        <v>462.1193749005504</v>
+        <v>1609.400135603135</v>
       </c>
       <c r="D23" t="n">
-        <v>462.1193749005504</v>
+        <v>1249.193334840914</v>
       </c>
       <c r="E23" t="n">
-        <v>462.1193749005504</v>
+        <v>862.2054199365834</v>
       </c>
       <c r="F23" t="n">
-        <v>50.71143199091319</v>
+        <v>468.4990274216939</v>
       </c>
       <c r="G23" t="n">
         <v>50.71143199091319</v>
@@ -5989,13 +5989,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J23" t="n">
-        <v>154.6737472370295</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K23" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L23" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M23" t="n">
         <v>1286.636576300462</v>
@@ -6016,25 +6016,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S23" t="n">
-        <v>2386.871999099788</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T23" t="n">
-        <v>2167.15994995897</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U23" t="n">
-        <v>1913.242616724267</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V23" t="n">
-        <v>1581.390877812631</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="W23" t="n">
-        <v>1227.320052559546</v>
+        <v>1984.007811493205</v>
       </c>
       <c r="X23" t="n">
-        <v>852.7123766694756</v>
+        <v>1609.400135603135</v>
       </c>
       <c r="Y23" t="n">
-        <v>462.1193749005504</v>
+        <v>1609.400135603135</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J24" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K24" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L24" t="n">
-        <v>687.7199234768461</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M24" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N24" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O24" t="n">
-        <v>2160.184497733399</v>
+        <v>2229.885785662707</v>
       </c>
       <c r="P24" t="n">
-        <v>2484.689915167484</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q24" t="n">
         <v>2535.571599545659</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>497.6393774816751</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="C25" t="n">
-        <v>328.6125563390465</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="D25" t="n">
-        <v>178.1018830920572</v>
+        <v>510.5152750165048</v>
       </c>
       <c r="E25" t="n">
-        <v>178.1018830920572</v>
+        <v>362.05605867994</v>
       </c>
       <c r="F25" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="G25" t="n">
-        <v>50.71143199091319</v>
+        <v>347.3094344677676</v>
       </c>
       <c r="H25" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I25" t="n">
         <v>50.71143199091319</v>
@@ -6159,40 +6159,40 @@
         <v>355.9743406206215</v>
       </c>
       <c r="N25" t="n">
-        <v>494.2381528619504</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O25" t="n">
-        <v>606.6105655578849</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Y25" t="n">
-        <v>679.5420961591335</v>
+        <v>679.5420961591334</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>549.5350918043689</v>
+        <v>1532.130926182227</v>
       </c>
       <c r="C26" t="n">
-        <v>549.5350918043689</v>
+        <v>1398.92657387502</v>
       </c>
       <c r="D26" t="n">
-        <v>549.5350918043689</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="E26" t="n">
-        <v>549.5350918043689</v>
+        <v>1038.719773112799</v>
       </c>
       <c r="F26" t="n">
-        <v>549.5350918043689</v>
+        <v>627.311830203162</v>
       </c>
       <c r="G26" t="n">
-        <v>379.3913075309111</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="H26" t="n">
-        <v>50.71143199091319</v>
+        <v>209.5242347723813</v>
       </c>
       <c r="I26" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J26" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K26" t="n">
-        <v>432.7629010724813</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L26" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M26" t="n">
         <v>1286.636576300462</v>
@@ -6259,19 +6259,19 @@
         <v>2251.574998418504</v>
       </c>
       <c r="U26" t="n">
-        <v>1997.657665183802</v>
+        <v>2251.574998418504</v>
       </c>
       <c r="V26" t="n">
-        <v>1665.805926272166</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="W26" t="n">
-        <v>1311.735101019081</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="X26" t="n">
-        <v>937.1274251290104</v>
+        <v>1919.723259506869</v>
       </c>
       <c r="Y26" t="n">
-        <v>937.1274251290104</v>
+        <v>1919.723259506869</v>
       </c>
     </row>
     <row r="27">
@@ -6287,28 +6287,28 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D27" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E27" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F27" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G27" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H27" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I27" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J27" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K27" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L27" t="n">
         <v>573.239262455199</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>464.3108739090777</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="C28" t="n">
-        <v>464.3108739090777</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="D28" t="n">
-        <v>464.3108739090777</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="E28" t="n">
-        <v>315.8516575725129</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="F28" t="n">
-        <v>219.7327493538749</v>
+        <v>377.9838957680342</v>
       </c>
       <c r="G28" t="n">
-        <v>50.71143199091319</v>
+        <v>208.9625784050725</v>
       </c>
       <c r="H28" t="n">
         <v>50.71143199091319</v>
@@ -6405,31 +6405,31 @@
         <v>679.5420961591334</v>
       </c>
       <c r="Q28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V28" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W28" t="n">
-        <v>646.2135925865362</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="X28" t="n">
-        <v>646.2135925865362</v>
+        <v>525.6192709294529</v>
       </c>
       <c r="Y28" t="n">
-        <v>646.2135925865362</v>
+        <v>525.6192709294529</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1773.371590330948</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="C29" t="n">
-        <v>1402.679574493632</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="D29" t="n">
-        <v>1042.472773731412</v>
+        <v>1163.066539421204</v>
       </c>
       <c r="E29" t="n">
-        <v>655.4848588270806</v>
+        <v>776.0786245168733</v>
       </c>
       <c r="F29" t="n">
-        <v>244.0769159174434</v>
+        <v>364.6706816072361</v>
       </c>
       <c r="G29" t="n">
         <v>50.71143199091319</v>
@@ -6463,13 +6463,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J29" t="n">
-        <v>154.6737472370295</v>
+        <v>154.6737472370294</v>
       </c>
       <c r="K29" t="n">
-        <v>432.7629010724812</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L29" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M29" t="n">
         <v>1286.636576300462</v>
@@ -6493,22 +6493,22 @@
         <v>2535.571599545659</v>
       </c>
       <c r="T29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="U29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W29" t="n">
-        <v>2535.571599545659</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="X29" t="n">
-        <v>2160.963923655589</v>
+        <v>1941.251874514771</v>
       </c>
       <c r="Y29" t="n">
-        <v>2160.963923655589</v>
+        <v>1550.658872745846</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C30" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D30" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E30" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F30" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G30" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H30" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I30" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J30" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K30" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L30" t="n">
-        <v>687.719923476846</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M30" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N30" t="n">
-        <v>1735.393833177324</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O30" t="n">
-        <v>2160.184497733399</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P30" t="n">
-        <v>2484.689915167484</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q30" t="n">
         <v>2535.571599545659</v>
       </c>
       <c r="R30" t="n">
-        <v>2481.698134656769</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S30" t="n">
-        <v>2323.528421865784</v>
+        <v>2470.252003537142</v>
       </c>
       <c r="T30" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U30" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V30" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W30" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X30" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y30" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>370.2489263805311</v>
+        <v>201.2221052379024</v>
       </c>
       <c r="C31" t="n">
         <v>201.2221052379024</v>
@@ -6642,31 +6642,31 @@
         <v>679.5420961591334</v>
       </c>
       <c r="Q31" t="n">
-        <v>646.2135925865362</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R31" t="n">
-        <v>496.4361755452312</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S31" t="n">
-        <v>370.2489263805311</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T31" t="n">
-        <v>370.2489263805311</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U31" t="n">
-        <v>370.2489263805311</v>
+        <v>677.6716253739705</v>
       </c>
       <c r="V31" t="n">
-        <v>370.2489263805311</v>
+        <v>422.1803616699916</v>
       </c>
       <c r="W31" t="n">
-        <v>370.2489263805311</v>
+        <v>422.1803616699916</v>
       </c>
       <c r="X31" t="n">
-        <v>370.2489263805311</v>
+        <v>422.1803616699916</v>
       </c>
       <c r="Y31" t="n">
-        <v>370.2489263805311</v>
+        <v>201.2221052379024</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>822.326175662771</v>
+        <v>1196.58804749276</v>
       </c>
       <c r="C32" t="n">
-        <v>822.326175662771</v>
+        <v>1196.58804749276</v>
       </c>
       <c r="D32" t="n">
-        <v>462.1193749005504</v>
+        <v>836.3812467305397</v>
       </c>
       <c r="E32" t="n">
-        <v>462.1193749005504</v>
+        <v>836.3812467305397</v>
       </c>
       <c r="F32" t="n">
-        <v>50.71143199091319</v>
+        <v>424.9733038209025</v>
       </c>
       <c r="G32" t="n">
         <v>50.71143199091319</v>
@@ -6697,16 +6697,16 @@
         <v>50.71143199091319</v>
       </c>
       <c r="I32" t="n">
-        <v>50.71143199091319</v>
+        <v>50.71143199091335</v>
       </c>
       <c r="J32" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370295</v>
       </c>
       <c r="K32" t="n">
-        <v>432.7629010724816</v>
+        <v>432.7629010724812</v>
       </c>
       <c r="L32" t="n">
-        <v>829.7261648535823</v>
+        <v>829.7261648535822</v>
       </c>
       <c r="M32" t="n">
         <v>1286.636576300462</v>
@@ -6733,19 +6733,19 @@
         <v>2315.859550404841</v>
       </c>
       <c r="U32" t="n">
-        <v>2286.434074921059</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="V32" t="n">
-        <v>1954.582336009423</v>
+        <v>2315.859550404841</v>
       </c>
       <c r="W32" t="n">
-        <v>1600.511510756337</v>
+        <v>1961.788725151755</v>
       </c>
       <c r="X32" t="n">
-        <v>1600.511510756337</v>
+        <v>1587.181049261685</v>
       </c>
       <c r="Y32" t="n">
-        <v>1209.918508987412</v>
+        <v>1196.58804749276</v>
       </c>
     </row>
     <row r="33">
@@ -6764,40 +6764,40 @@
         <v>512.5670185594408</v>
       </c>
       <c r="E33" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F33" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G33" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9213613606679</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="I33" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J33" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K33" t="n">
-        <v>296.4476481521845</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L33" t="n">
-        <v>687.719923476846</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M33" t="n">
-        <v>1197.116407734492</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N33" t="n">
-        <v>1735.393833177324</v>
+        <v>1805.095121106633</v>
       </c>
       <c r="O33" t="n">
-        <v>2160.184497733399</v>
+        <v>2211.066182111574</v>
       </c>
       <c r="P33" t="n">
-        <v>2484.689915167484</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="Q33" t="n">
         <v>2535.571599545659</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="C34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="D34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="E34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="F34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G34" t="n">
         <v>50.71143199091319</v>
@@ -6894,16 +6894,16 @@
         <v>390.6311794045658</v>
       </c>
       <c r="V34" t="n">
-        <v>339.6938328872925</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="W34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="X34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="Y34" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2147.979266221018</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="C35" t="n">
-        <v>1777.287250383702</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="D35" t="n">
-        <v>1417.080449621481</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="E35" t="n">
-        <v>1030.092534717151</v>
+        <v>1208.586845871329</v>
       </c>
       <c r="F35" t="n">
-        <v>618.6845918075132</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G35" t="n">
-        <v>200.8969963767325</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H35" t="n">
         <v>50.71143199091319</v>
@@ -6940,19 +6940,19 @@
         <v>154.6737472370294</v>
       </c>
       <c r="K35" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724811</v>
       </c>
       <c r="L35" t="n">
-        <v>829.7261648535818</v>
+        <v>829.7261648535821</v>
       </c>
       <c r="M35" t="n">
-        <v>1286.636576300461</v>
+        <v>1286.636576300462</v>
       </c>
       <c r="N35" t="n">
-        <v>1735.42310089741</v>
+        <v>1735.423100897411</v>
       </c>
       <c r="O35" t="n">
-        <v>2113.071138623964</v>
+        <v>2113.071138623965</v>
       </c>
       <c r="P35" t="n">
         <v>2398.446208459429</v>
@@ -6964,25 +6964,25 @@
         <v>2535.571599545659</v>
       </c>
       <c r="S35" t="n">
-        <v>2535.571599545659</v>
+        <v>2460.401563340417</v>
       </c>
       <c r="T35" t="n">
-        <v>2535.571599545659</v>
+        <v>2240.689514199598</v>
       </c>
       <c r="U35" t="n">
-        <v>2535.571599545659</v>
+        <v>1986.772180964896</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.571599545659</v>
+        <v>1986.772180964896</v>
       </c>
       <c r="W35" t="n">
-        <v>2535.571599545659</v>
+        <v>1986.772180964896</v>
       </c>
       <c r="X35" t="n">
-        <v>2535.571599545659</v>
+        <v>1986.772180964896</v>
       </c>
       <c r="Y35" t="n">
-        <v>2535.571599545659</v>
+        <v>1596.179179195971</v>
       </c>
     </row>
     <row r="36">
@@ -6998,25 +6998,25 @@
         <v>660.1553252004969</v>
       </c>
       <c r="D36" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E36" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F36" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G36" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I36" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J36" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K36" t="n">
         <v>181.9669871305374</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>308.8064226857393</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="C37" t="n">
-        <v>139.7796015431107</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="D37" t="n">
-        <v>139.7796015431107</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="E37" t="n">
-        <v>139.7796015431107</v>
+        <v>302.658273830337</v>
       </c>
       <c r="F37" t="n">
-        <v>139.7796015431107</v>
+        <v>302.658273830337</v>
       </c>
       <c r="G37" t="n">
-        <v>50.71143199091319</v>
+        <v>302.658273830337</v>
       </c>
       <c r="H37" t="n">
-        <v>50.71143199091319</v>
+        <v>189.0582880536082</v>
       </c>
       <c r="I37" t="n">
         <v>50.71143199091319</v>
@@ -7119,28 +7119,28 @@
         <v>679.5420961591334</v>
       </c>
       <c r="R37" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S37" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T37" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U37" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="V37" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="W37" t="n">
-        <v>529.7646791178285</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="X37" t="n">
-        <v>529.7646791178285</v>
+        <v>451.1174901669018</v>
       </c>
       <c r="Y37" t="n">
-        <v>308.8064226857393</v>
+        <v>451.1174901669018</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>620.9321776820185</v>
+        <v>1580.006106404418</v>
       </c>
       <c r="C38" t="n">
-        <v>620.9321776820185</v>
+        <v>1209.314090567102</v>
       </c>
       <c r="D38" t="n">
-        <v>620.9321776820185</v>
+        <v>849.1072898048812</v>
       </c>
       <c r="E38" t="n">
-        <v>620.9321776820185</v>
+        <v>462.1193749005504</v>
       </c>
       <c r="F38" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G38" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H38" t="n">
-        <v>209.5242347723813</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I38" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J38" t="n">
-        <v>154.6737472370296</v>
+        <v>154.6737472370293</v>
       </c>
       <c r="K38" t="n">
-        <v>432.7629010724816</v>
+        <v>432.7629010724809</v>
       </c>
       <c r="L38" t="n">
         <v>829.7261648535823</v>
@@ -7198,28 +7198,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R38" t="n">
-        <v>2471.287047559323</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="S38" t="n">
-        <v>2292.00071659582</v>
+        <v>2535.571599545659</v>
       </c>
       <c r="T38" t="n">
-        <v>2072.288667455001</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="U38" t="n">
-        <v>2072.288667455001</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="V38" t="n">
-        <v>2072.288667455001</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="W38" t="n">
-        <v>1773.725188665655</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="X38" t="n">
-        <v>1399.117512775585</v>
+        <v>2358.191441497984</v>
       </c>
       <c r="Y38" t="n">
-        <v>1008.52451100666</v>
+        <v>1967.598439729059</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.6320219500381</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C39" t="n">
-        <v>806.8789068718552</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D39" t="n">
-        <v>659.290600230799</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E39" t="n">
-        <v>501.6810712336537</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F39" t="n">
-        <v>356.7252812502705</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G39" t="n">
-        <v>220.0009863964077</v>
+        <v>73.27740472504951</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9213613606679</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I39" t="n">
         <v>50.71143199091319</v>
       </c>
       <c r="J39" t="n">
-        <v>50.71143199091319</v>
+        <v>120.4127199202217</v>
       </c>
       <c r="K39" t="n">
-        <v>181.9669871305374</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L39" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M39" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N39" t="n">
         <v>1620.913172155677</v>
@@ -7280,25 +7280,25 @@
         <v>2481.698134656769</v>
       </c>
       <c r="S39" t="n">
-        <v>2470.252003537142</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T39" t="n">
-        <v>2272.5778151726</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U39" t="n">
-        <v>2045.695642583436</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.444399109037</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W39" t="n">
-        <v>1558.92990744237</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X39" t="n">
-        <v>1352.403008847948</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y39" t="n">
-        <v>1146.674573071598</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1906.740935377439</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="C40" t="n">
-        <v>1906.740935377439</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="D40" t="n">
-        <v>1906.740935377439</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="E40" t="n">
-        <v>1906.740935377439</v>
+        <v>242.171963068001</v>
       </c>
       <c r="F40" t="n">
-        <v>1906.740935377439</v>
+        <v>242.171963068001</v>
       </c>
       <c r="G40" t="n">
-        <v>1906.740935377439</v>
+        <v>73.15064570503927</v>
       </c>
       <c r="H40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="I40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="J40" t="n">
-        <v>1906.740935377439</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="K40" t="n">
-        <v>1956.351184640836</v>
+        <v>100.3216812543103</v>
       </c>
       <c r="L40" t="n">
-        <v>2075.638838623408</v>
+        <v>219.6093352368815</v>
       </c>
       <c r="M40" t="n">
-        <v>2212.003844007148</v>
+        <v>355.9743406206215</v>
       </c>
       <c r="N40" t="n">
-        <v>2350.267656248476</v>
+        <v>494.2381528619503</v>
       </c>
       <c r="O40" t="n">
-        <v>2462.640068944411</v>
+        <v>606.6105655578848</v>
       </c>
       <c r="P40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="Q40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="R40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="S40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="T40" t="n">
-        <v>2535.571599545659</v>
+        <v>679.5420961591334</v>
       </c>
       <c r="U40" t="n">
-        <v>2451.214599977798</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="V40" t="n">
-        <v>2195.723336273819</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="W40" t="n">
-        <v>1906.740935377439</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="X40" t="n">
-        <v>1906.740935377439</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="Y40" t="n">
-        <v>1906.740935377439</v>
+        <v>390.6311794045658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1757.386264452093</v>
+        <v>1382.778588562023</v>
       </c>
       <c r="C41" t="n">
-        <v>1757.386264452093</v>
+        <v>1012.086572724707</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.179463689872</v>
+        <v>651.8797719624864</v>
       </c>
       <c r="E41" t="n">
-        <v>1010.191548785541</v>
+        <v>264.8918570581556</v>
       </c>
       <c r="F41" t="n">
-        <v>598.783605875904</v>
+        <v>264.8918570581556</v>
       </c>
       <c r="G41" t="n">
-        <v>379.3913075309111</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H41" t="n">
         <v>50.71143199091319</v>
@@ -7453,10 +7453,10 @@
         <v>2535.571599545659</v>
       </c>
       <c r="X41" t="n">
-        <v>2535.571599545659</v>
+        <v>2160.963923655589</v>
       </c>
       <c r="Y41" t="n">
-        <v>2144.978597776734</v>
+        <v>1770.370921886664</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>832.9084402786798</v>
+        <v>979.6320219500381</v>
       </c>
       <c r="C42" t="n">
-        <v>660.1553252004969</v>
+        <v>806.8789068718552</v>
       </c>
       <c r="D42" t="n">
-        <v>512.5670185594408</v>
+        <v>659.290600230799</v>
       </c>
       <c r="E42" t="n">
-        <v>354.9574895622956</v>
+        <v>501.6810712336537</v>
       </c>
       <c r="F42" t="n">
-        <v>210.0016995789124</v>
+        <v>356.7252812502705</v>
       </c>
       <c r="G42" t="n">
-        <v>73.27740472504951</v>
+        <v>220.0009863964077</v>
       </c>
       <c r="H42" t="n">
-        <v>50.71143199091319</v>
+        <v>114.9213613606679</v>
       </c>
       <c r="I42" t="n">
         <v>50.71143199091319</v>
@@ -7502,13 +7502,13 @@
         <v>1266.817695663801</v>
       </c>
       <c r="N42" t="n">
-        <v>1805.095121106633</v>
+        <v>1620.913172155677</v>
       </c>
       <c r="O42" t="n">
-        <v>2229.885785662707</v>
+        <v>2045.703836711752</v>
       </c>
       <c r="P42" t="n">
-        <v>2535.571599545659</v>
+        <v>2370.209254145837</v>
       </c>
       <c r="Q42" t="n">
         <v>2535.571599545659</v>
@@ -7520,22 +7520,22 @@
         <v>2323.528421865784</v>
       </c>
       <c r="T42" t="n">
-        <v>2125.854233501242</v>
+        <v>2272.5778151726</v>
       </c>
       <c r="U42" t="n">
-        <v>1898.972060912078</v>
+        <v>2045.695642583436</v>
       </c>
       <c r="V42" t="n">
-        <v>1664.720817437679</v>
+        <v>1811.444399109037</v>
       </c>
       <c r="W42" t="n">
-        <v>1412.206325771012</v>
+        <v>1558.92990744237</v>
       </c>
       <c r="X42" t="n">
-        <v>1205.67942717659</v>
+        <v>1352.403008847948</v>
       </c>
       <c r="Y42" t="n">
-        <v>999.9509914002402</v>
+        <v>1146.674573071598</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="C43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="D43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="E43" t="n">
-        <v>50.71143199091319</v>
+        <v>367.3681245152936</v>
       </c>
       <c r="F43" t="n">
-        <v>50.71143199091319</v>
+        <v>219.7327493538749</v>
       </c>
       <c r="G43" t="n">
         <v>50.71143199091319</v>
@@ -7602,19 +7602,19 @@
         <v>679.5420961591334</v>
       </c>
       <c r="U43" t="n">
-        <v>679.5420961591334</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="V43" t="n">
-        <v>568.1184388795241</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="W43" t="n">
-        <v>279.1360379831448</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="X43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045658</v>
       </c>
       <c r="Y43" t="n">
-        <v>50.71143199091319</v>
+        <v>390.6311794045658</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1382.778588562023</v>
+        <v>1307.087989796006</v>
       </c>
       <c r="C44" t="n">
-        <v>1012.086572724707</v>
+        <v>1307.087989796006</v>
       </c>
       <c r="D44" t="n">
-        <v>651.8797719624864</v>
+        <v>946.8811890337856</v>
       </c>
       <c r="E44" t="n">
-        <v>264.8918570581556</v>
+        <v>946.8811890337856</v>
       </c>
       <c r="F44" t="n">
-        <v>264.8918570581556</v>
+        <v>797.1789029616918</v>
       </c>
       <c r="G44" t="n">
-        <v>50.71143199091319</v>
+        <v>379.3913075309111</v>
       </c>
       <c r="H44" t="n">
         <v>50.71143199091319</v>
@@ -7648,13 +7648,13 @@
         <v>50.71143199091319</v>
       </c>
       <c r="J44" t="n">
-        <v>154.6737472370294</v>
+        <v>154.6737472370296</v>
       </c>
       <c r="K44" t="n">
-        <v>432.762901072481</v>
+        <v>432.7629010724813</v>
       </c>
       <c r="L44" t="n">
-        <v>829.7261648535822</v>
+        <v>829.7261648535823</v>
       </c>
       <c r="M44" t="n">
         <v>1286.636576300462</v>
@@ -7672,28 +7672,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R44" t="n">
-        <v>2535.571599545659</v>
+        <v>2471.287047559323</v>
       </c>
       <c r="S44" t="n">
-        <v>2535.571599545659</v>
+        <v>2292.00071659582</v>
       </c>
       <c r="T44" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="U44" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="W44" t="n">
-        <v>2535.571599545659</v>
+        <v>2072.288667455001</v>
       </c>
       <c r="X44" t="n">
-        <v>2160.963923655589</v>
+        <v>1697.680991564931</v>
       </c>
       <c r="Y44" t="n">
-        <v>1770.370921886664</v>
+        <v>1307.087989796006</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>915.4220925802833</v>
+        <v>832.9084402786798</v>
       </c>
       <c r="C45" t="n">
-        <v>742.6689775021005</v>
+        <v>660.1553252004969</v>
       </c>
       <c r="D45" t="n">
-        <v>595.0806708610443</v>
+        <v>512.5670185594408</v>
       </c>
       <c r="E45" t="n">
-        <v>437.471141863899</v>
+        <v>354.9574895622956</v>
       </c>
       <c r="F45" t="n">
-        <v>292.5153518805158</v>
+        <v>210.0016995789124</v>
       </c>
       <c r="G45" t="n">
         <v>155.7910570266529</v>
@@ -7730,13 +7730,13 @@
         <v>120.4127199202217</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9669871305373</v>
+        <v>366.1489360814929</v>
       </c>
       <c r="L45" t="n">
-        <v>573.239262455199</v>
+        <v>757.4212114061545</v>
       </c>
       <c r="M45" t="n">
-        <v>1082.635746712845</v>
+        <v>1266.817695663801</v>
       </c>
       <c r="N45" t="n">
         <v>1620.913172155677</v>
@@ -7751,28 +7751,28 @@
         <v>2535.571599545659</v>
       </c>
       <c r="R45" t="n">
-        <v>2535.571599545659</v>
+        <v>2481.698134656769</v>
       </c>
       <c r="S45" t="n">
-        <v>2406.042074167387</v>
+        <v>2323.528421865784</v>
       </c>
       <c r="T45" t="n">
-        <v>2208.367885802846</v>
+        <v>2125.854233501242</v>
       </c>
       <c r="U45" t="n">
-        <v>1981.485713213681</v>
+        <v>1898.972060912078</v>
       </c>
       <c r="V45" t="n">
-        <v>1747.234469739282</v>
+        <v>1664.720817437679</v>
       </c>
       <c r="W45" t="n">
-        <v>1494.719978072616</v>
+        <v>1412.206325771012</v>
       </c>
       <c r="X45" t="n">
-        <v>1288.193079478193</v>
+        <v>1205.67942717659</v>
       </c>
       <c r="Y45" t="n">
-        <v>1082.464643701844</v>
+        <v>999.9509914002402</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="C46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="D46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="E46" t="n">
-        <v>236.5413344640914</v>
+        <v>198.3468071523319</v>
       </c>
       <c r="F46" t="n">
-        <v>236.5413344640914</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="G46" t="n">
-        <v>67.52001710112972</v>
+        <v>50.71143199091319</v>
       </c>
       <c r="H46" t="n">
         <v>50.71143199091319</v>
@@ -7836,22 +7836,22 @@
         <v>464.7698324521643</v>
       </c>
       <c r="T46" t="n">
-        <v>236.5413344640914</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="U46" t="n">
-        <v>236.5413344640914</v>
+        <v>464.7698324521643</v>
       </c>
       <c r="V46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="W46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="X46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
       <c r="Y46" t="n">
-        <v>236.5413344640914</v>
+        <v>346.8060234888967</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740114</v>
+        <v>337.1112290740112</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8063,22 +8063,22 @@
         <v>134.395403</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>397.1900756823312</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>225.3571079957513</v>
       </c>
       <c r="P3" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R3" t="n">
         <v>47.34253660377365</v>
@@ -8294,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
@@ -8303,10 +8303,10 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M6" t="n">
-        <v>362.2401502120437</v>
+        <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>128.05816928125</v>
+        <v>262.2514961538888</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
@@ -8315,7 +8315,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R6" t="n">
         <v>47.34253660377365</v>
@@ -8534,22 +8534,22 @@
         <v>123.666686</v>
       </c>
       <c r="K9" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L9" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>328.0172679079435</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8771,13 +8771,13 @@
         <v>60.72933541128936</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>484.3332662999999</v>
+        <v>368.6962349650029</v>
       </c>
       <c r="N12" t="n">
         <v>498.5160693172957</v>
@@ -9005,10 +9005,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K15" t="n">
-        <v>89.00147381534894</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>102.843347910286</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9245,7 +9245,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9254,7 +9254,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9479,10 +9479,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>131.1346767540252</v>
+        <v>60.72933541128936</v>
       </c>
       <c r="K21" t="n">
-        <v>275.0438464930818</v>
+        <v>159.4068151580847</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
@@ -9497,10 +9497,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.44770712425048</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,7 +9716,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
@@ -9734,10 +9734,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>331.2012793855346</v>
+        <v>312.1915788288343</v>
       </c>
       <c r="Q24" t="n">
-        <v>102.8433479102859</v>
+        <v>51.44770712425048</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9953,13 +9953,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K27" t="n">
-        <v>159.4068151580848</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>199.6315864378647</v>
       </c>
       <c r="M27" t="n">
         <v>484.3332662999999</v>
@@ -10190,7 +10190,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K30" t="n">
         <v>275.0438464930818</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>102.843347910286</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10442,13 +10442,13 @@
         <v>498.5160693172957</v>
       </c>
       <c r="O33" t="n">
-        <v>409.6168120477987</v>
+        <v>390.6071114910983</v>
       </c>
       <c r="P33" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>102.843347910286</v>
+        <v>51.44770712425048</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10664,10 +10664,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>159.4068151580848</v>
+        <v>89.00147381534893</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72933541128936</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>159.4068151580847</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11150,16 +11150,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>312.1915788288343</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>51.44770712425048</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>89.00147381534887</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>498.5160693172957</v>
+        <v>312.4736966395628</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.4051363269592</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I11" t="n">
-        <v>127.7111004587632</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>251.3781599023558</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>104.0288287853824</v>
+        <v>91.92161561464245</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>53.33473024000174</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>41.22751706926212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.3365529312023</v>
@@ -23430,16 +23430,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>69.04960427756089</v>
+        <v>163.6373391556865</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S13" t="n">
-        <v>212.6245410698995</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.9462130081922</v>
@@ -23481,7 +23481,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X13" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.7486738677682</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>333.9340427962902</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>308.1642587004804</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>63.64170646647295</v>
       </c>
       <c r="S14" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3781599023558</v>
@@ -23557,13 +23557,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23697,22 +23697,22 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>142.3620141356153</v>
       </c>
       <c r="U16" t="n">
-        <v>283.3250655463387</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.0925768874155</v>
@@ -23734,13 +23734,13 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>157.2246747536534</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>3.109800255969141</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.628143938751</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V17" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23828,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>104.0288287853823</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>91.92161561464282</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>167.3311041893321</v>
       </c>
       <c r="H19" t="n">
-        <v>156.6686349500177</v>
+        <v>106.2406618979171</v>
       </c>
       <c r="I19" t="n">
         <v>136.9633875020681</v>
@@ -23937,22 +23937,22 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U19" t="n">
-        <v>250.3298470094674</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W19" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>226.1403599323093</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>238.0033630092748</v>
+        <v>152.541653814065</v>
       </c>
       <c r="H20" t="n">
         <v>325.3930767845979</v>
       </c>
       <c r="I20" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>63.64170646647295</v>
+        <v>63.64170646647294</v>
       </c>
       <c r="S20" t="n">
         <v>177.493467653868</v>
       </c>
       <c r="T20" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3781599023558</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24135,22 +24135,22 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E22" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H22" t="n">
-        <v>156.6686349500177</v>
+        <v>7.343614497167209</v>
       </c>
       <c r="I22" t="n">
-        <v>68.92472426941507</v>
+        <v>136.9633875020681</v>
       </c>
       <c r="J22" t="n">
-        <v>49.35397375491782</v>
+        <v>49.35397375491781</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S22" t="n">
         <v>212.6245410698995</v>
@@ -24192,7 +24192,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -24211,16 +24211,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>17.52453489080023</v>
       </c>
       <c r="G23" t="n">
-        <v>413.6097194764729</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>325.3930767845979</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>63.64170646647294</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S23" t="n">
-        <v>30.28086321245568</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24302,7 +24302,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>81.68851577858739</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I24" t="n">
         <v>63.56783007605712</v>
@@ -24363,31 +24363,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>20.04247481967191</v>
+        <v>131.5598634397539</v>
       </c>
       <c r="G25" t="n">
         <v>167.3311041893321</v>
       </c>
       <c r="H25" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>49.35397375491781</v>
+        <v>49.35397375491782</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>235.1127868948072</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>245.1673730457497</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I26" t="n">
-        <v>157.2246747536534</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.6870717512358</v>
@@ -24527,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>145.2563458546446</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -24539,10 +24539,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C28" t="n">
         <v>167.3365529312023</v>
@@ -24609,16 +24609,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F28" t="n">
-        <v>51.00130227335289</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>156.6686349500177</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>136.9633875020681</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R28" t="n">
         <v>148.2796428708918</v>
@@ -24663,7 +24663,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>133.7089799100319</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>222.177890389208</v>
+        <v>102.7900623563132</v>
       </c>
       <c r="H29" t="n">
         <v>325.3930767845979</v>
@@ -24733,7 +24733,7 @@
         <v>177.493467653868</v>
       </c>
       <c r="T29" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3781599023558</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>53.33473024000175</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>91.92161561464282</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24882,22 +24882,22 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>32.99521853687121</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S31" t="n">
-        <v>87.69916439684636</v>
+        <v>212.6245410698995</v>
       </c>
       <c r="T31" t="n">
         <v>225.9462130081922</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0218075870219</v>
+        <v>284.1700415097106</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
@@ -24906,7 +24906,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.6097194764729</v>
+        <v>43.09046636478354</v>
       </c>
       <c r="H32" t="n">
         <v>325.3930767845979</v>
@@ -24973,16 +24973,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>222.2469391734115</v>
+        <v>251.3781599023558</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>104.0288287853824</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>41.22751706926217</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>156.6686349500177</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>202.5083780148386</v>
+        <v>83.74690531675517</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>176.7093680426367</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>157.2246747536534</v>
@@ -25204,13 +25204,13 @@
         <v>63.64170646647295</v>
       </c>
       <c r="S35" t="n">
-        <v>177.493467653868</v>
+        <v>103.075131810678</v>
       </c>
       <c r="T35" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3781599023558</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>328.5332215225193</v>
@@ -25222,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>145.2563458546446</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G37" t="n">
-        <v>79.15361633265653</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H37" t="n">
-        <v>156.6686349500177</v>
+        <v>44.20464903105629</v>
       </c>
       <c r="I37" t="n">
-        <v>136.9633875020681</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>49.35397375491782</v>
@@ -25359,7 +25359,7 @@
         <v>32.99521853687121</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>148.2796428708918</v>
       </c>
       <c r="S37" t="n">
         <v>212.6245410698995</v>
@@ -25377,10 +25377,10 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
-        <v>226.1403599323093</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -25393,13 +25393,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>325.3930767845979</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>157.2246747536534</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>63.64170646647295</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>177.493467653868</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>41.90857218221214</v>
       </c>
       <c r="U38" t="n">
         <v>251.3781599023558</v>
@@ -25453,10 +25453,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
-        <v>54.95227299910192</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>63.56783007605712</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25520,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>145.2563458546447</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>156.6686349500177</v>
+        <v>134.4538133730329</v>
       </c>
       <c r="I40" t="n">
         <v>136.9633875020681</v>
@@ -25605,13 +25605,13 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U40" t="n">
-        <v>202.5083780148388</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>196.41134411493</v>
+        <v>201.5710986599029</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>325.3930767845979</v>
       </c>
       <c r="I41" t="n">
         <v>157.2246747536534</v>
@@ -25693,7 +25693,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25724,10 +25724,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>81.6885157785874</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>63.56783007605712</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>145.2563458546447</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>146.9746241731992</v>
+        <v>123.9441998328197</v>
       </c>
       <c r="F43" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3311041893321</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>156.6686349500177</v>
@@ -25842,16 +25842,16 @@
         <v>225.9462130081922</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0218075870219</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>142.626930360126</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
         <v>218.7486738677682</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>259.088600269168</v>
       </c>
       <c r="G44" t="n">
-        <v>201.5710986599029</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>325.3930767845979</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>157.2246747536534</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>63.64170646647294</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>177.493467653868</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.5149286494106</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.3781599023558</v>
@@ -25958,7 +25958,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>81.6885157785874</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>53.33473024000174</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>28.35378553858568</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26031,16 +26031,16 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E46" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3311041893321</v>
       </c>
       <c r="H46" t="n">
-        <v>140.0281356909034</v>
+        <v>156.6686349500177</v>
       </c>
       <c r="I46" t="n">
         <v>136.9633875020681</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.9462130081922</v>
       </c>
       <c r="U46" t="n">
         <v>286.0218075870219</v>
       </c>
       <c r="V46" t="n">
-        <v>252.9363510669392</v>
+        <v>136.1521801933042</v>
       </c>
       <c r="W46" t="n">
         <v>286.0925768874155</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>676733.7824241333</v>
+        <v>676733.7824241335</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>676733.7824241335</v>
+        <v>676733.7824241337</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>676733.7824241335</v>
+        <v>676733.7824241337</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>676733.7824241335</v>
+        <v>676733.7824241337</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>488351.6451689618</v>
       </c>
       <c r="C2" t="n">
-        <v>488351.6451689618</v>
+        <v>488351.6451689617</v>
       </c>
       <c r="D2" t="n">
-        <v>488351.6451689619</v>
+        <v>488351.6451689617</v>
       </c>
       <c r="E2" t="n">
-        <v>329217.572439326</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="F2" t="n">
         <v>329217.5724393259</v>
@@ -26331,13 +26331,13 @@
         <v>329217.5724393259</v>
       </c>
       <c r="H2" t="n">
-        <v>329217.5724393259</v>
+        <v>329217.5724393258</v>
       </c>
       <c r="I2" t="n">
-        <v>329217.5724393259</v>
+        <v>329217.572439326</v>
       </c>
       <c r="J2" t="n">
-        <v>329217.5724393257</v>
+        <v>329217.572439326</v>
       </c>
       <c r="K2" t="n">
         <v>329217.5724393259</v>
@@ -26349,7 +26349,7 @@
         <v>329217.5724393259</v>
       </c>
       <c r="N2" t="n">
-        <v>329217.572439326</v>
+        <v>329217.5724393259</v>
       </c>
       <c r="O2" t="n">
         <v>329217.5724393259</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>89616.02429853741</v>
+        <v>89616.02429853739</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>310710.8877942914</v>
       </c>
       <c r="C4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="D4" t="n">
-        <v>310710.8877942914</v>
+        <v>310710.8877942915</v>
       </c>
       <c r="E4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="F4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="G4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="H4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="I4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="J4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="K4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="L4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="M4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="N4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="O4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
       <c r="P4" t="n">
-        <v>46215.6244553985</v>
+        <v>46215.62445539849</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35417.88952056109</v>
+        <v>35417.88952056108</v>
       </c>
       <c r="C6" t="n">
-        <v>127336.7018883009</v>
+        <v>127336.7018883008</v>
       </c>
       <c r="D6" t="n">
-        <v>127336.7018883011</v>
+        <v>127336.7018883008</v>
       </c>
       <c r="E6" t="n">
-        <v>-118479.7430184274</v>
+        <v>-125110.3293821625</v>
       </c>
       <c r="F6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045177</v>
       </c>
       <c r="G6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045177</v>
       </c>
       <c r="H6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045177</v>
       </c>
       <c r="I6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045178</v>
       </c>
       <c r="J6" t="n">
-        <v>165944.9743801662</v>
+        <v>159314.3880164316</v>
       </c>
       <c r="K6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045178</v>
       </c>
       <c r="L6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045177</v>
       </c>
       <c r="M6" t="n">
-        <v>148093.6625697152</v>
+        <v>141463.0762059804</v>
       </c>
       <c r="N6" t="n">
-        <v>237709.6868682527</v>
+        <v>231079.1005045177</v>
       </c>
       <c r="O6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045178</v>
       </c>
       <c r="P6" t="n">
-        <v>237709.6868682526</v>
+        <v>231079.1005045177</v>
       </c>
     </row>
   </sheetData>
@@ -27381,7 +27381,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>220.9951474187921</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>180.5259616850244</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>328.5332215225193</v>
@@ -27444,10 +27444,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="3">
@@ -27457,19 +27457,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>104.711124551353</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>65.17891199361986</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.0836914906838</v>
+        <v>15.94497456690883</v>
       </c>
       <c r="C4" t="n">
         <v>167.3365529312023</v>
@@ -27563,7 +27563,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C5" t="n">
-        <v>125.3977804263353</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>254.6506955952646</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W5" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X5" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
         <v>386.6870717512358</v>
@@ -27700,13 +27700,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
         <v>136.0232102050423</v>
@@ -27715,7 +27715,7 @@
         <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27751,16 +27751,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>230.4537134376461</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>145.1296072245198</v>
       </c>
       <c r="Y6" t="n">
         <v>203.671151418586</v>
@@ -27788,7 +27788,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G7" t="n">
-        <v>167.8895889301081</v>
+        <v>3.750872006333083</v>
       </c>
       <c r="H7" t="n">
         <v>161.6340720089168</v>
@@ -27800,7 +27800,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.0925768874155</v>
       </c>
       <c r="X7" t="n">
-        <v>47.22723329070089</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
         <v>218.7486738677682</v>
@@ -27858,16 +27858,16 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D8" t="n">
-        <v>356.6047327545984</v>
+        <v>82.3209254129959</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>108.834228413685</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>173.92486503191</v>
       </c>
       <c r="H8" t="n">
         <v>338.1439033881534</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27912,13 +27912,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W8" t="n">
-        <v>205.1808125958192</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27931,10 +27931,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -27982,25 +27982,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>9.458801139478624</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>161.9879688231744</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4.460827879852118</v>
       </c>
       <c r="R10" t="n">
-        <v>89.01313062185548</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S10" t="n">
         <v>222.3574069614225</v>
@@ -31758,13 +31758,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I11" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J11" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K11" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L11" t="n">
         <v>196.477585181553</v>
@@ -31773,7 +31773,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N11" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O11" t="n">
         <v>209.776231993146</v>
@@ -31785,16 +31785,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R11" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S11" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T11" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H12" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I12" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J12" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K12" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L12" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M12" t="n">
         <v>168.7893200645195</v>
@@ -31855,16 +31855,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O12" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P12" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q12" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R12" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S12" t="n">
         <v>12.37359824256949</v>
@@ -31873,7 +31873,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H13" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I13" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J13" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K13" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L13" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M13" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N13" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O13" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P13" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R13" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S13" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32469,13 +32469,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I20" t="n">
-        <v>47.99963311447062</v>
+        <v>47.99963311447063</v>
       </c>
       <c r="J20" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K20" t="n">
-        <v>158.3745108821695</v>
+        <v>158.3745108821696</v>
       </c>
       <c r="L20" t="n">
         <v>196.477585181553</v>
@@ -32484,7 +32484,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N20" t="n">
-        <v>222.1566574333124</v>
+        <v>222.1566574333125</v>
       </c>
       <c r="O20" t="n">
         <v>209.776231993146</v>
@@ -32496,16 +32496,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R20" t="n">
-        <v>78.20911623440412</v>
+        <v>78.20911623440414</v>
       </c>
       <c r="S20" t="n">
-        <v>28.37148406967121</v>
+        <v>28.37148406967122</v>
       </c>
       <c r="T20" t="n">
-        <v>5.450188547009793</v>
+        <v>5.450188547009794</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09960367418864263</v>
+        <v>0.09960367418864266</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6661582997180274</v>
+        <v>0.6661582997180275</v>
       </c>
       <c r="H21" t="n">
-        <v>6.433686736750424</v>
+        <v>6.433686736750425</v>
       </c>
       <c r="I21" t="n">
-        <v>22.93571338941454</v>
+        <v>22.93571338941455</v>
       </c>
       <c r="J21" t="n">
-        <v>62.93735058871066</v>
+        <v>62.93735058871067</v>
       </c>
       <c r="K21" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L21" t="n">
-        <v>144.641081699741</v>
+        <v>144.6410816997411</v>
       </c>
       <c r="M21" t="n">
         <v>168.7893200645195</v>
@@ -32566,16 +32566,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O21" t="n">
-        <v>158.4960056351045</v>
+        <v>158.4960056351046</v>
       </c>
       <c r="P21" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q21" t="n">
-        <v>85.0345226096205</v>
+        <v>85.03452260962051</v>
       </c>
       <c r="R21" t="n">
-        <v>41.36024952108947</v>
+        <v>41.36024952108948</v>
       </c>
       <c r="S21" t="n">
         <v>12.37359824256949</v>
@@ -32584,7 +32584,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04382620392881761</v>
+        <v>0.04382620392881762</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5584847407759705</v>
+        <v>0.5584847407759707</v>
       </c>
       <c r="H22" t="n">
-        <v>4.965437058899087</v>
+        <v>4.965437058899089</v>
       </c>
       <c r="I22" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J22" t="n">
-        <v>39.48487117286112</v>
+        <v>39.48487117286113</v>
       </c>
       <c r="K22" t="n">
-        <v>64.88577261015365</v>
+        <v>64.88577261015367</v>
       </c>
       <c r="L22" t="n">
-        <v>83.03144955136568</v>
+        <v>83.0314495513657</v>
       </c>
       <c r="M22" t="n">
-        <v>87.5450216836369</v>
+        <v>87.54502168363692</v>
       </c>
       <c r="N22" t="n">
-        <v>85.46339674074473</v>
+        <v>85.46339674074474</v>
       </c>
       <c r="O22" t="n">
-        <v>78.93927954167994</v>
+        <v>78.93927954167995</v>
       </c>
       <c r="P22" t="n">
-        <v>67.54619082985009</v>
+        <v>67.5461908298501</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.76548133897696</v>
+        <v>46.76548133897697</v>
       </c>
       <c r="R22" t="n">
-        <v>25.11150479889045</v>
+        <v>25.11150479889046</v>
       </c>
       <c r="S22" t="n">
-        <v>9.732865891523048</v>
+        <v>9.732865891523049</v>
       </c>
       <c r="T22" t="n">
-        <v>2.38625298331551</v>
+        <v>2.386252983315511</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0304628040423257</v>
+        <v>0.03046280404232571</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,13 +32706,13 @@
         <v>12.75082660355546</v>
       </c>
       <c r="I23" t="n">
-        <v>47.99963311447063</v>
+        <v>47.99963311447062</v>
       </c>
       <c r="J23" t="n">
         <v>105.671716777104</v>
       </c>
       <c r="K23" t="n">
-        <v>158.3745108821696</v>
+        <v>158.3745108821695</v>
       </c>
       <c r="L23" t="n">
         <v>196.477585181553</v>
@@ -32721,7 +32721,7 @@
         <v>218.6191706922064</v>
       </c>
       <c r="N23" t="n">
-        <v>222.1566574333125</v>
+        <v>222.1566574333124</v>
       </c>
       <c r="O23" t="n">
         <v>209.776231993146</v>
@@ -32733,16 +32733,16 @@
         <v>134.4509533879849</v>
       </c>
       <c r="R23" t="n">
-        <v>78.20911623440414</v>
+        <v>78.20911623440412</v>
       </c>
       <c r="S23" t="n">
-        <v>28.37148406967122</v>
+        <v>28.37148406967121</v>
       </c>
       <c r="T23" t="n">
-        <v>5.450188547009794</v>
+        <v>5.450188547009793</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09960367418864266</v>
+        <v>0.09960367418864263</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6661582997180275</v>
+        <v>0.6661582997180274</v>
       </c>
       <c r="H24" t="n">
-        <v>6.433686736750425</v>
+        <v>6.433686736750424</v>
       </c>
       <c r="I24" t="n">
-        <v>22.93571338941455</v>
+        <v>22.93571338941454</v>
       </c>
       <c r="J24" t="n">
-        <v>62.93735058871067</v>
+        <v>62.93735058871066</v>
       </c>
       <c r="K24" t="n">
         <v>107.5699566698185</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6410816997411</v>
+        <v>144.641081699741</v>
       </c>
       <c r="M24" t="n">
         <v>168.7893200645195</v>
@@ -32803,16 +32803,16 @@
         <v>173.2566711183303</v>
       </c>
       <c r="O24" t="n">
-        <v>158.4960056351046</v>
+        <v>158.4960056351045</v>
       </c>
       <c r="P24" t="n">
         <v>127.2070177768574</v>
       </c>
       <c r="Q24" t="n">
-        <v>85.03452260962051</v>
+        <v>85.0345226096205</v>
       </c>
       <c r="R24" t="n">
-        <v>41.36024952108948</v>
+        <v>41.36024952108947</v>
       </c>
       <c r="S24" t="n">
         <v>12.37359824256949</v>
@@ -32821,7 +32821,7 @@
         <v>2.685085427372224</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04382620392881762</v>
+        <v>0.04382620392881761</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5584847407759707</v>
+        <v>0.5584847407759705</v>
       </c>
       <c r="H25" t="n">
-        <v>4.965437058899089</v>
+        <v>4.965437058899087</v>
       </c>
       <c r="I25" t="n">
         <v>16.79515929533556</v>
       </c>
       <c r="J25" t="n">
-        <v>39.48487117286113</v>
+        <v>39.48487117286112</v>
       </c>
       <c r="K25" t="n">
-        <v>64.88577261015367</v>
+        <v>64.88577261015365</v>
       </c>
       <c r="L25" t="n">
-        <v>83.0314495513657</v>
+        <v>83.03144955136568</v>
       </c>
       <c r="M25" t="n">
-        <v>87.54502168363692</v>
+        <v>87.5450216836369</v>
       </c>
       <c r="N25" t="n">
-        <v>85.46339674074474</v>
+        <v>85.46339674074473</v>
       </c>
       <c r="O25" t="n">
-        <v>78.93927954167995</v>
+        <v>78.93927954167994</v>
       </c>
       <c r="P25" t="n">
-        <v>67.5461908298501</v>
+        <v>67.54619082985009</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.76548133897697</v>
+        <v>46.76548133897696</v>
       </c>
       <c r="R25" t="n">
-        <v>25.11150479889046</v>
+        <v>25.11150479889045</v>
       </c>
       <c r="S25" t="n">
-        <v>9.732865891523049</v>
+        <v>9.732865891523048</v>
       </c>
       <c r="T25" t="n">
-        <v>2.386252983315511</v>
+        <v>2.38625298331551</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03046280404232571</v>
+        <v>0.0304628040423257</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051553</v>
+        <v>122.5236243051552</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>258.6093926083634</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>86.32576966241803</v>
       </c>
       <c r="P3" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
@@ -35023,10 +35023,10 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M6" t="n">
-        <v>223.6594671380758</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>134.1933268726387</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
@@ -35035,7 +35035,7 @@
         <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>199.9590986266935</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L12" t="n">
         <v>395.2245205299612</v>
       </c>
       <c r="M12" t="n">
-        <v>514.5419032905515</v>
+        <v>398.9048719555545</v>
       </c>
       <c r="N12" t="n">
         <v>543.714571154376</v>
@@ -35506,7 +35506,7 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P12" t="n">
-        <v>327.78324993342</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q12" t="n">
         <v>167.0326721210326</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L13" t="n">
         <v>120.492579780375</v>
@@ -35585,7 +35585,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P13" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>62.17602748516742</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L15" t="n">
         <v>395.2245205299612</v>
@@ -35746,7 +35746,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q15" t="n">
-        <v>167.0326721210326</v>
+        <v>51.39564078603548</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K18" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L18" t="n">
         <v>395.2245205299612</v>
@@ -35974,7 +35974,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N18" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O18" t="n">
         <v>429.0814793495699</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>70.40534134273582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>248.2184001629003</v>
+        <v>132.5813688279032</v>
       </c>
       <c r="L21" t="n">
         <v>395.2245205299612</v>
@@ -36217,10 +36217,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P21" t="n">
-        <v>308.7735493767197</v>
+        <v>327.7832499334201</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>50.1113628923203</v>
+        <v>50.11136289232032</v>
       </c>
       <c r="L22" t="n">
         <v>120.492579780375</v>
@@ -36296,7 +36296,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P22" t="n">
-        <v>73.66821272853393</v>
+        <v>73.66821272853394</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K24" t="n">
         <v>248.2184001629003</v>
@@ -36454,10 +36454,10 @@
         <v>429.0814793495699</v>
       </c>
       <c r="P24" t="n">
-        <v>327.7832499334201</v>
+        <v>308.7735493767197</v>
       </c>
       <c r="Q24" t="n">
-        <v>51.39564078603548</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>50.11136289232032</v>
+        <v>50.1113628923203</v>
       </c>
       <c r="L25" t="n">
         <v>120.492579780375</v>
@@ -36533,7 +36533,7 @@
         <v>113.507487571651</v>
       </c>
       <c r="P25" t="n">
-        <v>73.66821272853394</v>
+        <v>73.66821272853393</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K27" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L27" t="n">
-        <v>395.2245205299612</v>
+        <v>209.1821478522283</v>
       </c>
       <c r="M27" t="n">
         <v>514.5419032905515</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K30" t="n">
         <v>248.2184001629003</v>
@@ -36922,7 +36922,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N30" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O30" t="n">
         <v>429.0814793495699</v>
@@ -36931,7 +36931,7 @@
         <v>327.78324993342</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.39564078603548</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K33" t="n">
         <v>248.2184001629003</v>
@@ -37162,13 +37162,13 @@
         <v>543.714571154376</v>
       </c>
       <c r="O33" t="n">
-        <v>429.0814793495699</v>
+        <v>410.0717787928695</v>
       </c>
       <c r="P33" t="n">
         <v>327.78324993342</v>
       </c>
       <c r="Q33" t="n">
-        <v>51.39564078603548</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K36" t="n">
-        <v>132.5813688279032</v>
+        <v>62.17602748516742</v>
       </c>
       <c r="L36" t="n">
         <v>395.2245205299612</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>70.40534134273582</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5813688279032</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L39" t="n">
         <v>395.2245205299612</v>
@@ -37633,7 +37633,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N39" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O39" t="n">
         <v>429.0814793495699</v>
@@ -37870,16 +37870,16 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N42" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O42" t="n">
         <v>429.0814793495699</v>
       </c>
       <c r="P42" t="n">
-        <v>308.7735493767197</v>
+        <v>327.78324993342</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>167.0326721210326</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>70.40534134273582</v>
       </c>
       <c r="K45" t="n">
-        <v>62.17602748516736</v>
+        <v>248.2184001629003</v>
       </c>
       <c r="L45" t="n">
         <v>395.2245205299612</v>
@@ -38107,7 +38107,7 @@
         <v>514.5419032905515</v>
       </c>
       <c r="N45" t="n">
-        <v>543.714571154376</v>
+        <v>357.6721984766432</v>
       </c>
       <c r="O45" t="n">
         <v>429.0814793495699</v>
